--- a/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510201020201020201020101015155101020551581440107108101085520102012.5120</v>
+        <v>01510201020201020201020101015155101020551581440107108101085520102012.5122</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,12 +783,39 @@
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L44"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +873,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01510201020201020201020101015155101020551581440107108101085520102012.5122</v>
+        <v>01510201020201020201020101015155101020551581440107108101085520102012.51226202024</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-12.xlsx
@@ -875,6 +875,9 @@
       <c r="G2" t="str">
         <v>01510201020201020201020101015155101020551581440107108101085520102012.51226202024</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
